--- a/modulo4/salud.xlsx
+++ b/modulo4/salud.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raravena\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13c0fce16975a509/Proyectos R/ciencia_datos/modulo4/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_6E5C74E5A0460FE227D131284C2C165B6470F0D9" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11390" windowHeight="5000"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -163,7 +164,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -972,33 +973,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O351"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1092,7 +1093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1139,7 +1140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1186,7 +1187,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1233,7 +1234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1280,7 +1281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1327,7 +1328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1374,7 +1375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1421,7 +1422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1468,7 +1469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1515,7 +1516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1562,7 +1563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1609,7 +1610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1656,7 +1657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1703,7 +1704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1750,7 +1751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1797,7 +1798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1844,7 +1845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1891,7 +1892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1938,7 +1939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1985,7 +1986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2032,7 +2033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2079,7 +2080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2126,7 +2127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2173,7 +2174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2220,7 +2221,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2267,7 +2268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2314,7 +2315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2361,7 +2362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2408,7 +2409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2455,7 +2456,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2502,7 +2503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2549,7 +2550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2596,7 +2597,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2643,7 +2644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2690,7 +2691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2737,7 +2738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2784,7 +2785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2831,7 +2832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2878,7 +2879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2925,7 +2926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2972,7 +2973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3019,7 +3020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3066,7 +3067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3113,7 +3114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3160,7 +3161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3207,7 +3208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3254,7 +3255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3301,7 +3302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3348,7 +3349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3395,7 +3396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3442,7 +3443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3489,7 +3490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3536,7 +3537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3583,7 +3584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3630,7 +3631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3677,7 +3678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3724,7 +3725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3771,7 +3772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3818,7 +3819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3865,7 +3866,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3912,7 +3913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3959,7 +3960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4006,7 +4007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4053,7 +4054,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4100,7 +4101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4147,7 +4148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4194,7 +4195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4241,7 +4242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4288,7 +4289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4335,7 +4336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4382,7 +4383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4429,7 +4430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4476,7 +4477,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4523,7 +4524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4570,7 +4571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4617,7 +4618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4664,7 +4665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4711,7 +4712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4758,7 +4759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4805,7 +4806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4852,7 +4853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4899,7 +4900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4946,7 +4947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4993,7 +4994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5040,7 +5041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5087,7 +5088,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5134,7 +5135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5181,7 +5182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5228,7 +5229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5275,7 +5276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5322,7 +5323,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5369,7 +5370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5416,7 +5417,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5463,7 +5464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5510,7 +5511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5557,7 +5558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5604,7 +5605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5651,7 +5652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5698,7 +5699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5745,7 +5746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5792,7 +5793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5839,7 +5840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5886,7 +5887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5933,7 +5934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5980,7 +5981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6027,7 +6028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6074,7 +6075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6121,7 +6122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6168,7 +6169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6215,7 +6216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6262,7 +6263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6309,7 +6310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6356,7 +6357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6403,7 +6404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6450,7 +6451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6497,7 +6498,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6544,7 +6545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6591,7 +6592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6638,7 +6639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6685,7 +6686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6732,7 +6733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6779,7 +6780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6826,7 +6827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6873,7 +6874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6920,7 +6921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6967,7 +6968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7014,7 +7015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7061,7 +7062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7108,7 +7109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7155,7 +7156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7202,7 +7203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7249,7 +7250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7296,7 +7297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7343,7 +7344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7390,7 +7391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7437,7 +7438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7484,7 +7485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7531,7 +7532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7578,7 +7579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7625,7 +7626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7672,7 +7673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7719,7 +7720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7766,7 +7767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7813,7 +7814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7860,7 +7861,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7907,7 +7908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7954,7 +7955,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -8001,7 +8002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -8048,7 +8049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -8095,7 +8096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -8142,7 +8143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -8189,7 +8190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -8236,7 +8237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -8283,7 +8284,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -8330,7 +8331,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -8377,7 +8378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -8424,7 +8425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -8471,7 +8472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -8518,7 +8519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -8565,7 +8566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -8612,7 +8613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -8659,7 +8660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8706,7 +8707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8753,7 +8754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8800,7 +8801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8847,7 +8848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8894,7 +8895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8941,7 +8942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8988,7 +8989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -9035,7 +9036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -9082,7 +9083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -9129,7 +9130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -9176,7 +9177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -9223,7 +9224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -9270,7 +9271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -9317,7 +9318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -9364,7 +9365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -9411,7 +9412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -9458,7 +9459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -9505,7 +9506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -9552,7 +9553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -9599,7 +9600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -9646,7 +9647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -9693,7 +9694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -9740,7 +9741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -9787,7 +9788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -9834,7 +9835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -9881,7 +9882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -9928,7 +9929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -9975,7 +9976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -10022,7 +10023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -10069,7 +10070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -10116,7 +10117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -10163,7 +10164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -10210,7 +10211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -10257,7 +10258,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -10304,7 +10305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -10351,7 +10352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -10398,7 +10399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -10445,7 +10446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -10492,7 +10493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -10539,7 +10540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -10586,7 +10587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -10633,7 +10634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -10680,7 +10681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -10727,7 +10728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -10774,7 +10775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -10821,7 +10822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -10868,7 +10869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -10915,7 +10916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -10962,7 +10963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -11009,7 +11010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -11056,7 +11057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -11103,7 +11104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -11150,7 +11151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -11197,7 +11198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -11244,7 +11245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -11291,7 +11292,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -11338,7 +11339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -11385,7 +11386,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -11432,7 +11433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -11479,7 +11480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -11526,7 +11527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -11573,7 +11574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -11620,7 +11621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -11667,7 +11668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -11714,7 +11715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -11761,7 +11762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -11808,7 +11809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -11855,7 +11856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -11902,7 +11903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -11949,7 +11950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -11996,7 +11997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -12043,7 +12044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -12090,7 +12091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -12137,7 +12138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -12184,7 +12185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -12231,7 +12232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -12278,7 +12279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -12325,7 +12326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -12372,7 +12373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -12419,7 +12420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -12466,7 +12467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -12513,7 +12514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -12560,7 +12561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -12607,7 +12608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -12654,7 +12655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -12701,7 +12702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -12748,7 +12749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -12795,7 +12796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -12842,7 +12843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -12889,7 +12890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -12936,7 +12937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -12983,7 +12984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -13030,7 +13031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -13077,7 +13078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -13124,7 +13125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -13171,7 +13172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -13218,7 +13219,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -13265,7 +13266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
@@ -13312,7 +13313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
@@ -13359,7 +13360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
@@ -13406,7 +13407,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -13453,7 +13454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
@@ -13500,7 +13501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
@@ -13547,7 +13548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
@@ -13594,7 +13595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -13641,7 +13642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -13688,7 +13689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -13735,7 +13736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
@@ -13782,7 +13783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
@@ -13829,7 +13830,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
@@ -13876,7 +13877,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
@@ -13923,7 +13924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
@@ -13970,7 +13971,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
@@ -14017,7 +14018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
@@ -14064,7 +14065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -14111,7 +14112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -14158,7 +14159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
@@ -14205,7 +14206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
@@ -14252,7 +14253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -14299,7 +14300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
@@ -14346,7 +14347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
@@ -14393,7 +14394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
@@ -14440,7 +14441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
@@ -14487,7 +14488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -14534,7 +14535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -14581,7 +14582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -14628,7 +14629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -14675,7 +14676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -14722,7 +14723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -14769,7 +14770,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -14816,7 +14817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -14863,7 +14864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -14910,7 +14911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -14957,7 +14958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -15004,7 +15005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -15051,7 +15052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -15098,7 +15099,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -15145,7 +15146,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
@@ -15192,7 +15193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
@@ -15239,7 +15240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
@@ -15286,7 +15287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
@@ -15333,7 +15334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
@@ -15380,7 +15381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
@@ -15427,7 +15428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
@@ -15474,7 +15475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
@@ -15521,7 +15522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
@@ -15568,7 +15569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
@@ -15615,7 +15616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
@@ -15662,7 +15663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
@@ -15709,7 +15710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
@@ -15756,7 +15757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
@@ -15803,7 +15804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
@@ -15850,7 +15851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
@@ -15897,7 +15898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
@@ -15944,7 +15945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
@@ -15991,7 +15992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
@@ -16038,7 +16039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
@@ -16085,7 +16086,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
@@ -16132,7 +16133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
@@ -16179,7 +16180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
@@ -16226,7 +16227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>324</v>
       </c>
@@ -16273,7 +16274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
@@ -16320,7 +16321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
@@ -16367,7 +16368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
@@ -16414,7 +16415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
@@ -16461,7 +16462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
@@ -16508,7 +16509,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
@@ -16555,7 +16556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>331</v>
       </c>
@@ -16602,7 +16603,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
@@ -16649,7 +16650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>333</v>
       </c>
@@ -16696,7 +16697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>334</v>
       </c>
@@ -16743,7 +16744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>335</v>
       </c>
@@ -16790,7 +16791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>336</v>
       </c>
@@ -16837,7 +16838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>337</v>
       </c>
@@ -16884,7 +16885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>338</v>
       </c>
@@ -16931,7 +16932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>339</v>
       </c>
@@ -16978,7 +16979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>340</v>
       </c>
@@ -17025,7 +17026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>341</v>
       </c>
@@ -17072,7 +17073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>342</v>
       </c>
@@ -17119,7 +17120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>343</v>
       </c>
@@ -17166,7 +17167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>344</v>
       </c>
@@ -17213,7 +17214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>345</v>
       </c>
@@ -17260,7 +17261,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>346</v>
       </c>
@@ -17307,7 +17308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>347</v>
       </c>
@@ -17354,7 +17355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>348</v>
       </c>
@@ -17401,7 +17402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>349</v>
       </c>
@@ -17448,7 +17449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>350</v>
       </c>
@@ -17496,7 +17497,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:O351">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O351">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17504,20 +17505,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -17525,7 +17526,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -17533,7 +17534,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -17541,7 +17542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -17549,7 +17550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -17557,7 +17558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -17565,7 +17566,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -17573,7 +17574,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -17581,7 +17582,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -17589,7 +17590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -17597,7 +17598,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -17605,7 +17606,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -17613,7 +17614,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -17621,7 +17622,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -17629,7 +17630,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
